--- a/data/trans_media/P34F2_MIN_2023-Edad-trans_media.xlsx
+++ b/data/trans_media/P34F2_MIN_2023-Edad-trans_media.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,64; 28,49</t>
+          <t>20,61; 27,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,65; 24,08</t>
+          <t>18,68; 24,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,7; 25,44</t>
+          <t>20,64; 25,3</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,22; 24,23</t>
+          <t>19,54; 24,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,45; 22,7</t>
+          <t>18,28; 22,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,31; 22,6</t>
+          <t>19,5; 22,76</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,14; 22,93</t>
+          <t>19,35; 22,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,42; 23,25</t>
+          <t>20,68; 23,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,31; 22,63</t>
+          <t>20,31; 22,61</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,92; 23,53</t>
+          <t>19,02; 23,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,21; 20,63</t>
+          <t>18,24; 20,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,97; 21,52</t>
+          <t>19,03; 21,7</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,86; 21,89</t>
+          <t>18,87; 21,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,29; 21,8</t>
+          <t>19,12; 21,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,36; 21,38</t>
+          <t>19,4; 21,37</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,79; 21,29</t>
+          <t>18,88; 21,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,65; 20,62</t>
+          <t>12,66; 20,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,24; 20,33</t>
+          <t>15,14; 20,39</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,27; 21,98</t>
+          <t>20,31; 21,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,98; 20,78</t>
+          <t>17,9; 20,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,4; 21,06</t>
+          <t>19,35; 21,04</t>
         </is>
       </c>
     </row>
